--- a/TFC_zaiko_2019-05-16.xlsx
+++ b/TFC_zaiko_2019-05-16.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="zaiko" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="zaiko" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>TFC在庫報告</t>
   </si>
@@ -56,24 +55,6 @@
     <t>ETD</t>
   </si>
   <si>
-    <t>2019-05-18</t>
-  </si>
-  <si>
-    <t>2019-06-01</t>
-  </si>
-  <si>
-    <t>2019-06-15</t>
-  </si>
-  <si>
-    <t>2019-06-22</t>
-  </si>
-  <si>
-    <t>2019-06-29</t>
-  </si>
-  <si>
-    <t>2019-07-06</t>
-  </si>
-  <si>
     <t>コード</t>
   </si>
   <si>
@@ -87,30 +68,6 @@
   </si>
   <si>
     <t>南濃取込</t>
-  </si>
-  <si>
-    <t>2019-05-29</t>
-  </si>
-  <si>
-    <t>2019-05-31</t>
-  </si>
-  <si>
-    <t>2019-06-12</t>
-  </si>
-  <si>
-    <t>2019-06-14</t>
-  </si>
-  <si>
-    <t>2019-06-26</t>
-  </si>
-  <si>
-    <t>2019-07-03</t>
-  </si>
-  <si>
-    <t>2019-07-10</t>
-  </si>
-  <si>
-    <t>2019-07-24</t>
   </si>
   <si>
     <t>002SN/01</t>
@@ -1285,9 +1242,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="M/D;@" numFmtId="164"/>
+    <numFmt formatCode="m/d;@" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -1296,26 +1253,17 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="13"/>
     </font>
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="13"/>
+      <sz val="6"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1341,41 +1289,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,22 +1334,7 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,19 +1342,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1428,44 +1360,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1492,14 +1424,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1526,6 +1476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1537,320 +1505,295 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M323"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <pane activePane="bottomRight" state="frozen" topLeftCell="F4" xSplit="5" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="F1" activeCellId="0" pane="topRight" sqref="F1"/>
-      <selection activeCell="A4" activeCellId="0" pane="bottomLeft" sqref="A4"/>
-      <selection activeCell="G8" activeCellId="0" pane="bottomRight" sqref="G8"/>
+      <selection activeCell="F1" pane="topRight" sqref="F1"/>
+      <selection activeCell="A4" pane="bottomLeft" sqref="A4"/>
+      <selection activeCell="K7" pane="bottomRight" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="25.75"/>
-    <col customWidth="1" max="2" min="2" style="8" width="7.62"/>
-    <col customWidth="1" max="3" min="3" style="8" width="7.13"/>
-    <col customWidth="1" max="4" min="4" style="8" width="7.62"/>
+    <col customWidth="1" max="2" min="2" style="8" width="7.625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="7.125"/>
+    <col customWidth="1" max="4" min="4" style="8" width="7.625"/>
     <col customWidth="1" max="5" min="5" style="8" width="8.5"/>
-    <col customWidth="1" max="13" min="6" style="8" width="8"/>
-    <col customWidth="1" max="1025" min="14" style="8" width="8.6"/>
+    <col customWidth="1" max="13" min="6" style="8" width="8.75"/>
+    <col customWidth="1" max="1025" min="14" style="8" width="8.625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17.5" r="1" s="9" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row customHeight="1" ht="17.45" r="1" s="8" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.5" r="2" s="9" spans="1:13">
-      <c r="D2" s="13" t="s">
+    <row customHeight="1" ht="17.45" r="2" s="8" spans="1:13">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="n">
+        <v>43603</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>43603</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>43617</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>43617</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>43631</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>43638</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>43645</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>43652</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.45" r="3" s="8" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="F3" s="10" t="n">
+        <v>43614</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>43616</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>43628</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>43630</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>43642</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>43649</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>43656</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17.5" r="3" s="9" spans="1:13">
-      <c r="A3" s="11" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C4" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="4" s="9" spans="1:13">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4">
         <f>B4-C4</f>
         <v/>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
@@ -1865,22 +1808,22 @@
         <v>50</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="9" spans="1:13">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <f>B5-C5</f>
         <v/>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
@@ -1893,22 +1836,22 @@
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="9" spans="1:13">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <f>B6-C6</f>
         <v/>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v/>
@@ -1935,22 +1878,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="9" spans="1:13">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <f>B7-C7</f>
         <v/>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v/>
@@ -1977,22 +1920,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="9" spans="1:13">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <f>B8-C8</f>
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -2005,22 +1948,22 @@
       <c r="L8" t="s"/>
       <c r="M8" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="9" spans="1:13">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <f>B9-C9</f>
         <v/>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -2037,22 +1980,22 @@
         <v>50</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="9" spans="1:13">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <f>B10-C10</f>
         <v/>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>150.5</v>
@@ -2067,22 +2010,22 @@
         <v>50</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="9" spans="1:13">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <f>B11-C11</f>
         <v/>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
@@ -2095,22 +2038,22 @@
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="9" spans="1:13">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <f>B12-C12</f>
         <v/>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>48.8</v>
@@ -2127,22 +2070,22 @@
         <v>50</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="9" spans="1:13">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <f>B13-C13</f>
         <v/>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v/>
@@ -2169,22 +2112,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="9" spans="1:13">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <f>B14-C14</f>
         <v/>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s"/>
@@ -2201,22 +2144,22 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="9" spans="1:13">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <f>B15-C15</f>
         <v/>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
@@ -2229,22 +2172,22 @@
       <c r="L15" t="s"/>
       <c r="M15" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="9" spans="1:13">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <f>B16-C16</f>
         <v/>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -2267,22 +2210,22 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="9" spans="1:13">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <f>B17-C17</f>
         <v/>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s"/>
@@ -2299,22 +2242,22 @@
       <c r="L17" t="s"/>
       <c r="M17" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="9" spans="1:13">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <f>B18-C18</f>
         <v/>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s"/>
       <c r="G18" t="s"/>
@@ -2327,22 +2270,22 @@
       </c>
       <c r="M18" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="9" spans="1:13">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <f>B19-C19</f>
         <v/>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s"/>
       <c r="G19" t="s"/>
@@ -2363,22 +2306,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="9" spans="1:13">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <f>B20-C20</f>
         <v/>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
@@ -2403,22 +2346,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="9" spans="1:13">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <f>B21-C21</f>
         <v/>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s"/>
@@ -2433,22 +2376,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="9" spans="1:13">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <f>B22-C22</f>
         <v/>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
@@ -2465,22 +2408,22 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="9" spans="1:13">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <f>B23-C23</f>
         <v/>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s"/>
@@ -2497,22 +2440,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="9" spans="1:13">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <f>B24-C24</f>
         <v/>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s"/>
       <c r="G24" t="n">
@@ -2525,22 +2468,22 @@
       <c r="L24" t="s"/>
       <c r="M24" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="9" spans="1:13">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <f>B25-C25</f>
         <v/>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -2555,22 +2498,22 @@
       <c r="L25" t="s"/>
       <c r="M25" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="9" spans="1:13">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <f>B26-C26</f>
         <v/>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
         <v/>
@@ -2597,22 +2540,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="9" spans="1:13">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <f>B27-C27</f>
         <v/>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s"/>
       <c r="G27" t="n">
@@ -2633,22 +2576,22 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="9" spans="1:13">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <f>B28-C28</f>
         <v/>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="n">
@@ -2673,22 +2616,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="9" spans="1:13">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <f>B29-C29</f>
         <v/>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F29" t="n">
         <v>10</v>
@@ -2705,22 +2648,22 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="9" spans="1:13">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <f>B30-C30</f>
         <v/>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F30" t="n">
         <v/>
@@ -2747,22 +2690,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="9" spans="1:13">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D31">
         <f>B31-C31</f>
         <v/>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s"/>
@@ -2775,22 +2718,22 @@
       <c r="L31" t="s"/>
       <c r="M31" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="9" spans="1:13">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <f>B32-C32</f>
         <v/>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -2809,22 +2752,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="9" spans="1:13">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D33">
         <f>B33-C33</f>
         <v/>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s"/>
       <c r="G33" t="n">
@@ -2837,22 +2780,22 @@
       <c r="L33" t="s"/>
       <c r="M33" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="9" spans="1:13">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <f>B34-C34</f>
         <v/>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="n">
@@ -2875,22 +2818,22 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="9" spans="1:13">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <f>B35-C35</f>
         <v/>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s"/>
@@ -2909,22 +2852,22 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="9" spans="1:13">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D36">
         <f>B36-C36</f>
         <v/>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s"/>
       <c r="G36" t="n">
@@ -2949,22 +2892,22 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="9" spans="1:13">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D37">
         <f>B37-C37</f>
         <v/>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -2985,22 +2928,22 @@
       </c>
       <c r="M37" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="9" spans="1:13">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <f>B38-C38</f>
         <v/>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F38" t="n">
         <v>3</v>
@@ -3025,22 +2968,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="9" spans="1:13">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <f>B39-C39</f>
         <v/>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -3063,22 +3006,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="9" spans="1:13">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D40">
         <f>B40-C40</f>
         <v/>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
@@ -3101,22 +3044,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="9" spans="1:13">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <f>B41-C41</f>
         <v/>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s"/>
       <c r="G41" t="s"/>
@@ -3135,22 +3078,22 @@
       </c>
       <c r="M41" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="9" spans="1:13">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <f>B42-C42</f>
         <v/>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F42" t="n">
         <v/>
@@ -3177,22 +3120,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="9" spans="1:13">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <f>B43-C43</f>
         <v/>
       </c>
       <c r="E43" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
@@ -3215,22 +3158,22 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="9" spans="1:13">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D44">
         <f>B44-C44</f>
         <v/>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -3253,22 +3196,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="9" spans="1:13">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <f>B45-C45</f>
         <v/>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s"/>
@@ -3285,22 +3228,22 @@
       </c>
       <c r="M45" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="9" spans="1:13">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <f>B46-C46</f>
         <v/>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F46" t="n">
         <v/>
@@ -3327,22 +3270,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="9" spans="1:13">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D47">
         <f>B47-C47</f>
         <v/>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F47" t="n">
         <v/>
@@ -3369,22 +3312,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="9" spans="1:13">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <f>B48-C48</f>
         <v/>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F48" t="n">
         <v/>
@@ -3411,22 +3354,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="9" spans="1:13">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D49">
         <f>B49-C49</f>
         <v/>
       </c>
       <c r="E49" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F49" t="n">
         <v/>
@@ -3453,22 +3396,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="9" spans="1:13">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <f>B50-C50</f>
         <v/>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F50" t="s"/>
       <c r="G50" t="s"/>
@@ -3481,22 +3424,22 @@
       <c r="L50" t="s"/>
       <c r="M50" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="9" spans="1:13">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <f>B51-C51</f>
         <v/>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F51" t="n">
         <v/>
@@ -3523,22 +3466,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="9" spans="1:13">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D52">
         <f>B52-C52</f>
         <v/>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
@@ -3551,22 +3494,22 @@
       <c r="L52" t="s"/>
       <c r="M52" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="9" spans="1:13">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D53">
         <f>B53-C53</f>
         <v/>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F53" t="n">
         <v/>
@@ -3593,22 +3536,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="9" spans="1:13">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D54">
         <f>B54-C54</f>
         <v/>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s"/>
@@ -3621,22 +3564,22 @@
       <c r="L54" t="s"/>
       <c r="M54" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="9" spans="1:13">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D55">
         <f>B55-C55</f>
         <v/>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s"/>
@@ -3651,22 +3594,22 @@
       </c>
       <c r="M55" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="9" spans="1:13">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D56">
         <f>B56-C56</f>
         <v/>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F56" t="n">
         <v/>
@@ -3693,22 +3636,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="9" spans="1:13">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <f>B57-C57</f>
         <v/>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
@@ -3721,22 +3664,22 @@
       <c r="L57" t="s"/>
       <c r="M57" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="9" spans="1:13">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D58">
         <f>B58-C58</f>
         <v/>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -3751,22 +3694,22 @@
       <c r="L58" t="s"/>
       <c r="M58" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="9" spans="1:13">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <f>B59-C59</f>
         <v/>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -3781,22 +3724,22 @@
       </c>
       <c r="M59" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="9" spans="1:13">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <f>B60-C60</f>
         <v/>
       </c>
       <c r="E60" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
@@ -3813,22 +3756,22 @@
       <c r="L60" t="s"/>
       <c r="M60" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="9" spans="1:13">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D61">
         <f>B61-C61</f>
         <v/>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F61" t="n">
         <v/>
@@ -3855,22 +3798,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="9" spans="1:13">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D62">
         <f>B62-C62</f>
         <v/>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F62" t="n">
         <v/>
@@ -3897,64 +3840,64 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="9" spans="1:13">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D63">
         <f>B63-C63</f>
         <v/>
       </c>
       <c r="E63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+      <c r="H63" t="n">
+        <v/>
+      </c>
+      <c r="I63" t="n">
+        <v/>
+      </c>
+      <c r="J63" t="n">
+        <v/>
+      </c>
+      <c r="K63" t="n">
+        <v/>
+      </c>
+      <c r="L63" t="n">
+        <v/>
+      </c>
+      <c r="M63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="F63" t="n">
-        <v/>
-      </c>
-      <c r="G63" t="n">
-        <v/>
-      </c>
-      <c r="H63" t="n">
-        <v/>
-      </c>
-      <c r="I63" t="n">
-        <v/>
-      </c>
-      <c r="J63" t="n">
-        <v/>
-      </c>
-      <c r="K63" t="n">
-        <v/>
-      </c>
-      <c r="L63" t="n">
-        <v/>
-      </c>
-      <c r="M63" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="64" s="9" spans="1:13">
-      <c r="A64" t="s">
-        <v>142</v>
-      </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D64">
         <f>B64-C64</f>
         <v/>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F64" t="n">
         <v/>
@@ -3981,22 +3924,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="9" spans="1:13">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D65">
         <f>B65-C65</f>
         <v/>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F65" t="n">
         <v/>
@@ -4023,22 +3966,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="9" spans="1:13">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <f>B66-C66</f>
         <v/>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F66" t="n">
         <v/>
@@ -4065,22 +4008,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="9" spans="1:13">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D67">
         <f>B67-C67</f>
         <v/>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F67" t="n">
         <v/>
@@ -4107,22 +4050,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="9" spans="1:13">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
         <v>102</v>
-      </c>
-      <c r="C68" t="s">
-        <v>116</v>
       </c>
       <c r="D68">
         <f>B68-C68</f>
         <v/>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F68" t="n">
         <v/>
@@ -4149,22 +4092,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="9" spans="1:13">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D69">
         <f>B69-C69</f>
         <v/>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F69" t="n">
         <v/>
@@ -4191,22 +4134,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="9" spans="1:13">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <f>B70-C70</f>
         <v/>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F70" t="n">
         <v>3</v>
@@ -4227,22 +4170,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="9" spans="1:13">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D71">
         <f>B71-C71</f>
         <v/>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s"/>
@@ -4255,22 +4198,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="9" spans="1:13">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <f>B72-C72</f>
         <v/>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F72" t="s"/>
       <c r="G72" t="s"/>
@@ -4283,22 +4226,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="9" spans="1:13">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D73">
         <f>B73-C73</f>
         <v/>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s"/>
       <c r="G73" t="s"/>
@@ -4317,22 +4260,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="9" spans="1:13">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <f>B74-C74</f>
         <v/>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F74" t="s"/>
       <c r="G74" t="s"/>
@@ -4345,22 +4288,22 @@
       <c r="L74" t="s"/>
       <c r="M74" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="9" spans="1:13">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <f>B75-C75</f>
         <v/>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F75" t="s"/>
       <c r="G75" t="s"/>
@@ -4375,22 +4318,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="9" spans="1:13">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <f>B76-C76</f>
         <v/>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F76" t="n">
         <v/>
@@ -4417,22 +4360,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="9" spans="1:13">
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D77">
         <f>B77-C77</f>
         <v/>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F77" t="s"/>
       <c r="G77" t="s"/>
@@ -4449,22 +4392,22 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="9" spans="1:13">
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D78">
         <f>B78-C78</f>
         <v/>
       </c>
       <c r="E78" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F78" t="n">
         <v/>
@@ -4491,22 +4434,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="9" spans="1:13">
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D79">
         <f>B79-C79</f>
         <v/>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
@@ -4519,22 +4462,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="9" spans="1:13">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <f>B80-C80</f>
         <v/>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F80" t="n">
         <v/>
@@ -4561,22 +4504,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="9" spans="1:13">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D81">
         <f>B81-C81</f>
         <v/>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F81" t="n">
         <v/>
@@ -4603,22 +4546,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="9" spans="1:13">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D82">
         <f>B82-C82</f>
         <v/>
       </c>
       <c r="E82" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F82" t="n">
         <v/>
@@ -4645,22 +4588,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="9" spans="1:13">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D83">
         <f>B83-C83</f>
         <v/>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F83" t="n">
         <v/>
@@ -4687,22 +4630,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="9" spans="1:13">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D84">
         <f>B84-C84</f>
         <v/>
       </c>
       <c r="E84" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F84" t="n">
         <v/>
@@ -4729,22 +4672,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="9" spans="1:13">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D85">
         <f>B85-C85</f>
         <v/>
       </c>
       <c r="E85" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F85" t="n">
         <v/>
@@ -4771,22 +4714,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="9" spans="1:13">
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D86">
         <f>B86-C86</f>
         <v/>
       </c>
       <c r="E86" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F86" t="n">
         <v/>
@@ -4813,22 +4756,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="9" spans="1:13">
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <f>B87-C87</f>
         <v/>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F87" t="s"/>
       <c r="G87" t="s"/>
@@ -4841,22 +4784,22 @@
       <c r="L87" t="s"/>
       <c r="M87" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="9" spans="1:13">
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D88">
         <f>B88-C88</f>
         <v/>
       </c>
       <c r="E88" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F88" t="n">
         <v/>
@@ -4883,22 +4826,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="9" spans="1:13">
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D89">
         <f>B89-C89</f>
         <v/>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F89" t="n">
         <v/>
@@ -4925,22 +4868,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="9" spans="1:13">
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D90">
         <f>B90-C90</f>
         <v/>
       </c>
       <c r="E90" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F90" t="n">
         <v/>
@@ -4967,22 +4910,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="9" spans="1:13">
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D91">
         <f>B91-C91</f>
         <v/>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F91" t="n">
         <v/>
@@ -5009,22 +4952,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="9" spans="1:13">
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D92">
         <f>B92-C92</f>
         <v/>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F92" t="n">
         <v/>
@@ -5051,22 +4994,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="9" spans="1:13">
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D93">
         <f>B93-C93</f>
         <v/>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
         <v/>
@@ -5093,22 +5036,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="9" spans="1:13">
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D94">
         <f>B94-C94</f>
         <v/>
       </c>
       <c r="E94" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F94" t="n">
         <v/>
@@ -5135,22 +5078,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="9" spans="1:13">
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D95">
         <f>B95-C95</f>
         <v/>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F95" t="n">
         <v/>
@@ -5177,22 +5120,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="9" spans="1:13">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D96">
         <f>B96-C96</f>
         <v/>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F96" t="n">
         <v/>
@@ -5219,22 +5162,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="9" spans="1:13">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D97">
         <f>B97-C97</f>
         <v/>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F97" t="n">
         <v/>
@@ -5261,22 +5204,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="9" spans="1:13">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D98">
         <f>B98-C98</f>
         <v/>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F98" t="s"/>
       <c r="G98" t="s"/>
@@ -5289,22 +5232,22 @@
       <c r="L98" t="s"/>
       <c r="M98" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="9" spans="1:13">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D99">
         <f>B99-C99</f>
         <v/>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F99" t="n">
         <v/>
@@ -5331,22 +5274,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="9" spans="1:13">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D100">
         <f>B100-C100</f>
         <v/>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F100" t="n">
         <v/>
@@ -5373,22 +5316,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="9" spans="1:13">
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D101">
         <f>B101-C101</f>
         <v/>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F101" t="n">
         <v/>
@@ -5415,22 +5358,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="9" spans="1:13">
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D102">
         <f>B102-C102</f>
         <v/>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F102" t="n">
         <v/>
@@ -5457,22 +5400,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="103" s="9" spans="1:13">
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D103">
         <f>B103-C103</f>
         <v/>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F103" t="n">
         <v/>
@@ -5499,22 +5442,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="104" s="9" spans="1:13">
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D104">
         <f>B104-C104</f>
         <v/>
       </c>
       <c r="E104" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F104" t="s"/>
       <c r="G104" t="s"/>
@@ -5527,22 +5470,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="105" s="9" spans="1:13">
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D105">
         <f>B105-C105</f>
         <v/>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F105" t="n">
         <v/>
@@ -5569,22 +5512,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="106" s="9" spans="1:13">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D106">
         <f>B106-C106</f>
         <v/>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F106" t="n">
         <v/>
@@ -5611,22 +5554,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="107" s="9" spans="1:13">
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D107">
         <f>B107-C107</f>
         <v/>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F107" t="s"/>
       <c r="G107" t="s"/>
@@ -5639,22 +5582,22 @@
       <c r="L107" t="s"/>
       <c r="M107" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="108" s="9" spans="1:13">
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D108">
         <f>B108-C108</f>
         <v/>
       </c>
       <c r="E108" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F108" t="s"/>
       <c r="G108" t="s"/>
@@ -5667,22 +5610,22 @@
       <c r="L108" t="s"/>
       <c r="M108" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="109" s="9" spans="1:13">
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D109">
         <f>B109-C109</f>
         <v/>
       </c>
       <c r="E109" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -5697,22 +5640,22 @@
       <c r="L109" t="s"/>
       <c r="M109" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="110" s="9" spans="1:13">
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D110">
         <f>B110-C110</f>
         <v/>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F110" t="n">
         <v>2</v>
@@ -5729,22 +5672,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="111" s="9" spans="1:13">
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D111">
         <f>B111-C111</f>
         <v/>
       </c>
       <c r="E111" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F111" t="n">
         <v/>
@@ -5771,22 +5714,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="112" s="9" spans="1:13">
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B112" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D112">
         <f>B112-C112</f>
         <v/>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F112" t="n">
         <v/>
@@ -5813,22 +5756,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="113" s="9" spans="1:13">
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D113">
         <f>B113-C113</f>
         <v/>
       </c>
       <c r="E113" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F113" t="n">
         <v>10</v>
@@ -5843,22 +5786,22 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="114" s="9" spans="1:13">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D114">
         <f>B114-C114</f>
         <v/>
       </c>
       <c r="E114" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F114" t="s"/>
       <c r="G114" t="s"/>
@@ -5871,22 +5814,22 @@
       <c r="L114" t="s"/>
       <c r="M114" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="115" s="9" spans="1:13">
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D115">
         <f>B115-C115</f>
         <v/>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F115" t="n">
         <v>3</v>
@@ -5901,22 +5844,22 @@
       <c r="L115" t="s"/>
       <c r="M115" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="116" s="9" spans="1:13">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D116">
         <f>B116-C116</f>
         <v/>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F116" t="n">
         <v/>
@@ -5943,22 +5886,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="117" s="9" spans="1:13">
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D117">
         <f>B117-C117</f>
         <v/>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -5971,22 +5914,22 @@
       <c r="L117" t="s"/>
       <c r="M117" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="118" s="9" spans="1:13">
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D118">
         <f>B118-C118</f>
         <v/>
       </c>
       <c r="E118" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F118" t="n">
         <v/>
@@ -6013,22 +5956,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="119" s="9" spans="1:13">
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D119">
         <f>B119-C119</f>
         <v/>
       </c>
       <c r="E119" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F119" t="n">
         <v/>
@@ -6055,22 +5998,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="120" s="9" spans="1:13">
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D120">
         <f>B120-C120</f>
         <v/>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F120" t="n">
         <v/>
@@ -6097,22 +6040,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="121" s="9" spans="1:13">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D121">
         <f>B121-C121</f>
         <v/>
       </c>
       <c r="E121" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F121" t="n">
         <v/>
@@ -6139,22 +6082,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="122" s="9" spans="1:13">
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D122">
         <f>B122-C122</f>
         <v/>
       </c>
       <c r="E122" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F122" t="n">
         <v/>
@@ -6181,22 +6124,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="123" s="9" spans="1:13">
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D123">
         <f>B123-C123</f>
         <v/>
       </c>
       <c r="E123" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F123" t="n">
         <v>10</v>
@@ -6209,22 +6152,22 @@
       <c r="L123" t="s"/>
       <c r="M123" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="124" s="9" spans="1:13">
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D124">
         <f>B124-C124</f>
         <v/>
       </c>
       <c r="E124" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F124" t="n">
         <v/>
@@ -6251,22 +6194,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="125" s="9" spans="1:13">
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D125">
         <f>B125-C125</f>
         <v/>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F125" t="n">
         <v/>
@@ -6293,22 +6236,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="126" s="9" spans="1:13">
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" t="s">
         <v>102</v>
-      </c>
-      <c r="C126" t="s">
-        <v>116</v>
       </c>
       <c r="D126">
         <f>B126-C126</f>
         <v/>
       </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F126" t="n">
         <v/>
@@ -6335,22 +6278,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="127" s="9" spans="1:13">
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D127">
         <f>B127-C127</f>
         <v/>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F127" t="n">
         <v/>
@@ -6377,22 +6320,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="128" s="9" spans="1:13">
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C128" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D128">
         <f>B128-C128</f>
         <v/>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F128" t="n">
         <v/>
@@ -6419,22 +6362,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="129" s="9" spans="1:13">
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D129">
         <f>B129-C129</f>
         <v/>
       </c>
       <c r="E129" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F129" t="n">
         <v/>
@@ -6461,22 +6404,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="130" s="9" spans="1:13">
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C130" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D130">
         <f>B130-C130</f>
         <v/>
       </c>
       <c r="E130" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F130" t="s"/>
       <c r="G130" t="s"/>
@@ -6489,22 +6432,22 @@
       <c r="L130" t="s"/>
       <c r="M130" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="131" s="9" spans="1:13">
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C131" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D131">
         <f>B131-C131</f>
         <v/>
       </c>
       <c r="E131" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F131" t="n">
         <v/>
@@ -6531,22 +6474,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="132" s="9" spans="1:13">
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C132" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D132">
         <f>B132-C132</f>
         <v/>
       </c>
       <c r="E132" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F132" t="n">
         <v/>
@@ -6573,22 +6516,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="133" s="9" spans="1:13">
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D133">
         <f>B133-C133</f>
         <v/>
       </c>
       <c r="E133" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F133" t="s"/>
       <c r="G133" t="s"/>
@@ -6603,22 +6546,22 @@
       </c>
       <c r="M133" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="134" s="9" spans="1:13">
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C134" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D134">
         <f>B134-C134</f>
         <v/>
       </c>
       <c r="E134" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F134" t="n">
         <v/>
@@ -6645,22 +6588,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="135" s="9" spans="1:13">
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D135">
         <f>B135-C135</f>
         <v/>
       </c>
       <c r="E135" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F135" t="s"/>
       <c r="G135" t="s"/>
@@ -6673,22 +6616,22 @@
       <c r="L135" t="s"/>
       <c r="M135" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="136" s="9" spans="1:13">
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C136" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D136">
         <f>B136-C136</f>
         <v/>
       </c>
       <c r="E136" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F136" t="n">
         <v/>
@@ -6715,22 +6658,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="137" s="9" spans="1:13">
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D137">
         <f>B137-C137</f>
         <v/>
       </c>
       <c r="E137" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F137" t="n">
         <v/>
@@ -6757,22 +6700,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="138" s="9" spans="1:13">
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D138">
         <f>B138-C138</f>
         <v/>
       </c>
       <c r="E138" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F138" t="n">
         <v/>
@@ -6799,22 +6742,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="139" s="9" spans="1:13">
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D139">
         <f>B139-C139</f>
         <v/>
       </c>
       <c r="E139" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F139" t="n">
         <v/>
@@ -6841,22 +6784,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="140" s="9" spans="1:13">
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D140">
         <f>B140-C140</f>
         <v/>
       </c>
       <c r="E140" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F140" t="n">
         <v/>
@@ -6883,22 +6826,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="141" s="9" spans="1:13">
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D141">
         <f>B141-C141</f>
         <v/>
       </c>
       <c r="E141" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F141" t="n">
         <v/>
@@ -6925,22 +6868,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="142" s="9" spans="1:13">
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D142">
         <f>B142-C142</f>
         <v/>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F142" t="n">
         <v/>
@@ -6967,22 +6910,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="143" s="9" spans="1:13">
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D143">
         <f>B143-C143</f>
         <v/>
       </c>
       <c r="E143" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F143" t="n">
         <v/>
@@ -7009,22 +6952,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="144" s="9" spans="1:13">
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D144">
         <f>B144-C144</f>
         <v/>
       </c>
       <c r="E144" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F144" t="n">
         <v/>
@@ -7051,22 +6994,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="145" s="9" spans="1:13">
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B145" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C145" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D145">
         <f>B145-C145</f>
         <v/>
       </c>
       <c r="E145" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F145" t="n">
         <v/>
@@ -7093,22 +7036,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="146" s="9" spans="1:13">
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C146" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D146">
         <f>B146-C146</f>
         <v/>
       </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F146" t="n">
         <v/>
@@ -7135,22 +7078,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="147" s="9" spans="1:13">
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C147" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D147">
         <f>B147-C147</f>
         <v/>
       </c>
       <c r="E147" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F147" t="n">
         <v/>
@@ -7177,22 +7120,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="148" s="9" spans="1:13">
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C148" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D148">
         <f>B148-C148</f>
         <v/>
       </c>
       <c r="E148" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F148" t="s"/>
       <c r="G148" t="s"/>
@@ -7205,22 +7148,22 @@
       <c r="L148" t="s"/>
       <c r="M148" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="149" s="9" spans="1:13">
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C149" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D149">
         <f>B149-C149</f>
         <v/>
       </c>
       <c r="E149" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -7235,22 +7178,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="150" s="9" spans="1:13">
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C150" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D150">
         <f>B150-C150</f>
         <v/>
       </c>
       <c r="E150" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F150" t="s"/>
       <c r="G150" t="s"/>
@@ -7263,22 +7206,22 @@
       <c r="L150" t="s"/>
       <c r="M150" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="151" s="9" spans="1:13">
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C151" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D151">
         <f>B151-C151</f>
         <v/>
       </c>
       <c r="E151" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F151" t="s"/>
       <c r="G151" t="s"/>
@@ -7293,22 +7236,22 @@
       <c r="L151" t="s"/>
       <c r="M151" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="152" s="9" spans="1:13">
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C152" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D152">
         <f>B152-C152</f>
         <v/>
       </c>
       <c r="E152" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F152" t="n">
         <v/>
@@ -7335,22 +7278,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="153" s="9" spans="1:13">
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D153">
         <f>B153-C153</f>
         <v/>
       </c>
       <c r="E153" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F153" t="n">
         <v>10</v>
@@ -7365,22 +7308,22 @@
       <c r="L153" t="s"/>
       <c r="M153" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="154" s="9" spans="1:13">
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D154">
         <f>B154-C154</f>
         <v/>
       </c>
       <c r="E154" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F154" t="s"/>
       <c r="G154" t="s"/>
@@ -7395,22 +7338,22 @@
       <c r="L154" t="s"/>
       <c r="M154" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="155" s="9" spans="1:13">
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D155">
         <f>B155-C155</f>
         <v/>
       </c>
       <c r="E155" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F155" t="s"/>
       <c r="G155" t="s"/>
@@ -7425,22 +7368,22 @@
       <c r="L155" t="s"/>
       <c r="M155" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="156" s="9" spans="1:13">
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C156" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D156">
         <f>B156-C156</f>
         <v/>
       </c>
       <c r="E156" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F156" t="n">
         <v/>
@@ -7467,22 +7410,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="157" s="9" spans="1:13">
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C157" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D157">
         <f>B157-C157</f>
         <v/>
       </c>
       <c r="E157" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F157" t="s"/>
       <c r="G157" t="s"/>
@@ -7495,22 +7438,22 @@
       <c r="L157" t="s"/>
       <c r="M157" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="158" s="9" spans="1:13">
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C158" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D158">
         <f>B158-C158</f>
         <v/>
       </c>
       <c r="E158" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F158" t="n">
         <v/>
@@ -7537,22 +7480,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="159" s="9" spans="1:13">
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C159" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D159">
         <f>B159-C159</f>
         <v/>
       </c>
       <c r="E159" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -7567,22 +7510,22 @@
       <c r="L159" t="s"/>
       <c r="M159" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="160" s="9" spans="1:13">
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C160" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D160">
         <f>B160-C160</f>
         <v/>
       </c>
       <c r="E160" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F160" t="s"/>
       <c r="G160" t="s"/>
@@ -7595,22 +7538,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="161" s="9" spans="1:13">
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B161" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D161">
         <f>B161-C161</f>
         <v/>
       </c>
       <c r="E161" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F161" t="s"/>
       <c r="G161" t="s"/>
@@ -7623,22 +7566,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="162" s="9" spans="1:13">
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C162" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D162">
         <f>B162-C162</f>
         <v/>
       </c>
       <c r="E162" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F162" t="s"/>
       <c r="G162" t="s"/>
@@ -7651,22 +7594,22 @@
       </c>
       <c r="M162" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="163" s="9" spans="1:13">
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D163">
         <f>B163-C163</f>
         <v/>
       </c>
       <c r="E163" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F163" t="n">
         <v>10</v>
@@ -7679,22 +7622,22 @@
       <c r="L163" t="s"/>
       <c r="M163" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="164" s="9" spans="1:13">
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B164" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C164" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D164">
         <f>B164-C164</f>
         <v/>
       </c>
       <c r="E164" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -7707,22 +7650,22 @@
       <c r="L164" t="s"/>
       <c r="M164" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="165" s="9" spans="1:13">
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D165">
         <f>B165-C165</f>
         <v/>
       </c>
       <c r="E165" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -7739,22 +7682,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="166" s="9" spans="1:13">
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B166" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D166">
         <f>B166-C166</f>
         <v/>
       </c>
       <c r="E166" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F166" t="s"/>
       <c r="G166" t="s"/>
@@ -7767,22 +7710,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="167" s="9" spans="1:13">
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C167" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D167">
         <f>B167-C167</f>
         <v/>
       </c>
       <c r="E167" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F167" t="n">
         <v/>
@@ -7809,22 +7752,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="168" s="9" spans="1:13">
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C168" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D168">
         <f>B168-C168</f>
         <v/>
       </c>
       <c r="E168" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F168" t="n">
         <v/>
@@ -7851,22 +7794,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="169" s="9" spans="1:13">
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B169" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C169" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D169">
         <f>B169-C169</f>
         <v/>
       </c>
       <c r="E169" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F169" t="s"/>
       <c r="G169" t="s"/>
@@ -7879,22 +7822,22 @@
       <c r="L169" t="s"/>
       <c r="M169" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="170" s="9" spans="1:13">
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C170" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D170">
         <f>B170-C170</f>
         <v/>
       </c>
       <c r="E170" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7907,22 +7850,22 @@
       <c r="L170" t="s"/>
       <c r="M170" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="171" s="9" spans="1:13">
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B171" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C171" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D171">
         <f>B171-C171</f>
         <v/>
       </c>
       <c r="E171" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F171" t="n">
         <v/>
@@ -7949,22 +7892,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="172" s="9" spans="1:13">
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B172" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C172" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D172">
         <f>B172-C172</f>
         <v/>
       </c>
       <c r="E172" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F172" t="n">
         <v/>
@@ -7991,22 +7934,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="173" s="9" spans="1:13">
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B173" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D173">
         <f>B173-C173</f>
         <v/>
       </c>
       <c r="E173" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F173" t="n">
         <v>10</v>
@@ -8019,22 +7962,22 @@
       <c r="L173" t="s"/>
       <c r="M173" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="174" s="9" spans="1:13">
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B174" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D174">
         <f>B174-C174</f>
         <v/>
       </c>
       <c r="E174" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F174" t="n">
         <v/>
@@ -8061,22 +8004,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="175" s="9" spans="1:13">
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B175" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D175">
         <f>B175-C175</f>
         <v/>
       </c>
       <c r="E175" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F175" t="n">
         <v/>
@@ -8103,22 +8046,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="176" s="9" spans="1:13">
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C176" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D176">
         <f>B176-C176</f>
         <v/>
       </c>
       <c r="E176" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F176" t="n">
         <v/>
@@ -8145,22 +8088,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="177" s="9" spans="1:13">
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B177" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D177">
         <f>B177-C177</f>
         <v/>
       </c>
       <c r="E177" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F177" t="n">
         <v/>
@@ -8187,22 +8130,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="178" s="9" spans="1:13">
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B178" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C178" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D178">
         <f>B178-C178</f>
         <v/>
       </c>
       <c r="E178" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F178" t="n">
         <v>5</v>
@@ -8217,22 +8160,22 @@
       <c r="L178" t="s"/>
       <c r="M178" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="179" s="9" spans="1:13">
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B179" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C179" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D179">
         <f>B179-C179</f>
         <v/>
       </c>
       <c r="E179" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F179" t="s"/>
       <c r="G179" t="s"/>
@@ -8249,22 +8192,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="180" s="9" spans="1:13">
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B180" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C180" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D180">
         <f>B180-C180</f>
         <v/>
       </c>
       <c r="E180" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F180" t="s"/>
       <c r="G180" t="s"/>
@@ -8281,22 +8224,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="181" s="9" spans="1:13">
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B181" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C181" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D181">
         <f>B181-C181</f>
         <v/>
       </c>
       <c r="E181" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F181" t="n">
         <v>3</v>
@@ -8313,22 +8256,22 @@
       <c r="L181" t="s"/>
       <c r="M181" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="182" s="9" spans="1:13">
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B182" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D182">
         <f>B182-C182</f>
         <v/>
       </c>
       <c r="E182" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F182" t="n">
         <v/>
@@ -8355,22 +8298,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="183" s="9" spans="1:13">
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D183">
         <f>B183-C183</f>
         <v/>
       </c>
       <c r="E183" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F183" t="s"/>
       <c r="G183" t="s"/>
@@ -8387,22 +8330,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="184" s="9" spans="1:13">
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C184" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D184">
         <f>B184-C184</f>
         <v/>
       </c>
       <c r="E184" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F184" t="n">
         <v/>
@@ -8429,22 +8372,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="185" s="9" spans="1:13">
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C185" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D185">
         <f>B185-C185</f>
         <v/>
       </c>
       <c r="E185" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F185" t="n">
         <v/>
@@ -8471,22 +8414,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="186" s="9" spans="1:13">
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C186" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D186">
         <f>B186-C186</f>
         <v/>
       </c>
       <c r="E186" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F186" t="n">
         <v/>
@@ -8513,22 +8456,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="187" s="9" spans="1:13">
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B187" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D187">
         <f>B187-C187</f>
         <v/>
       </c>
       <c r="E187" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F187" t="n">
         <v/>
@@ -8555,22 +8498,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="188" s="9" spans="1:13">
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B188" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C188" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D188">
         <f>B188-C188</f>
         <v/>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F188" t="s"/>
       <c r="G188" t="s"/>
@@ -8583,22 +8526,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="189" s="9" spans="1:13">
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B189" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C189" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D189">
         <f>B189-C189</f>
         <v/>
       </c>
       <c r="E189" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F189" t="n">
         <v/>
@@ -8625,22 +8568,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="190" s="9" spans="1:13">
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C190" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D190">
         <f>B190-C190</f>
         <v/>
       </c>
       <c r="E190" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F190" t="s"/>
       <c r="G190" t="s"/>
@@ -8653,22 +8596,22 @@
       </c>
       <c r="M190" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="191" s="9" spans="1:13">
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D191">
         <f>B191-C191</f>
         <v/>
       </c>
       <c r="E191" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F191" t="s"/>
       <c r="G191" t="s"/>
@@ -8681,22 +8624,22 @@
       <c r="L191" t="s"/>
       <c r="M191" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="192" s="9" spans="1:13">
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B192" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D192">
         <f>B192-C192</f>
         <v/>
       </c>
       <c r="E192" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F192" t="n">
         <v/>
@@ -8723,22 +8666,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="193" s="9" spans="1:13">
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C193" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D193">
         <f>B193-C193</f>
         <v/>
       </c>
       <c r="E193" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F193" t="s"/>
       <c r="G193" t="s"/>
@@ -8751,22 +8694,22 @@
       <c r="L193" t="s"/>
       <c r="M193" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="194" s="9" spans="1:13">
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C194" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D194">
         <f>B194-C194</f>
         <v/>
       </c>
       <c r="E194" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F194" t="s"/>
       <c r="G194" t="s"/>
@@ -8779,22 +8722,22 @@
       </c>
       <c r="M194" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="195" s="9" spans="1:13">
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C195" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D195">
         <f>B195-C195</f>
         <v/>
       </c>
       <c r="E195" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F195" t="n">
         <v/>
@@ -8821,22 +8764,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="196" s="9" spans="1:13">
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B196" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C196" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D196">
         <f>B196-C196</f>
         <v/>
       </c>
       <c r="E196" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F196" t="n">
         <v/>
@@ -8863,22 +8806,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="197" s="9" spans="1:13">
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C197" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D197">
         <f>B197-C197</f>
         <v/>
       </c>
       <c r="E197" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F197" t="n">
         <v/>
@@ -8905,22 +8848,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="198" s="9" spans="1:13">
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B198" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C198" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D198">
         <f>B198-C198</f>
         <v/>
       </c>
       <c r="E198" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F198" t="n">
         <v/>
@@ -8947,22 +8890,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="199" s="9" spans="1:13">
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D199">
         <f>B199-C199</f>
         <v/>
       </c>
       <c r="E199" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F199" t="n">
         <v/>
@@ -8989,22 +8932,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="200" s="9" spans="1:13">
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C200" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D200">
         <f>B200-C200</f>
         <v/>
       </c>
       <c r="E200" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -9021,22 +8964,22 @@
       <c r="L200" t="s"/>
       <c r="M200" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="201" s="9" spans="1:13">
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C201" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D201">
         <f>B201-C201</f>
         <v/>
       </c>
       <c r="E201" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F201" t="n">
         <v/>
@@ -9063,22 +9006,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="202" s="9" spans="1:13">
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C202" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D202">
         <f>B202-C202</f>
         <v/>
       </c>
       <c r="E202" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F202" t="s"/>
       <c r="G202" t="s"/>
@@ -9091,22 +9034,22 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="203" s="9" spans="1:13">
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B203" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D203">
         <f>B203-C203</f>
         <v/>
       </c>
       <c r="E203" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F203" t="s"/>
       <c r="G203" t="s"/>
@@ -9119,22 +9062,22 @@
       <c r="L203" t="s"/>
       <c r="M203" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="204" s="9" spans="1:13">
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B204" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C204" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D204">
         <f>B204-C204</f>
         <v/>
       </c>
       <c r="E204" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F204" t="s"/>
       <c r="G204" t="s"/>
@@ -9149,22 +9092,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="205" s="9" spans="1:13">
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C205" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D205">
         <f>B205-C205</f>
         <v/>
       </c>
       <c r="E205" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F205" t="n">
         <v/>
@@ -9191,22 +9134,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="206" s="9" spans="1:13">
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C206" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D206">
         <f>B206-C206</f>
         <v/>
       </c>
       <c r="E206" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F206" t="s"/>
       <c r="G206" t="s"/>
@@ -9219,22 +9162,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="207" s="9" spans="1:13">
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B207" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C207" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D207">
         <f>B207-C207</f>
         <v/>
       </c>
       <c r="E207" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F207" t="n">
         <v>1</v>
@@ -9249,22 +9192,22 @@
       <c r="L207" t="s"/>
       <c r="M207" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="208" s="9" spans="1:13">
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B208" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D208">
         <f>B208-C208</f>
         <v/>
       </c>
       <c r="E208" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F208" t="s"/>
       <c r="G208" t="s"/>
@@ -9281,22 +9224,22 @@
       <c r="L208" t="s"/>
       <c r="M208" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="209" s="9" spans="1:13">
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B209" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D209">
         <f>B209-C209</f>
         <v/>
       </c>
       <c r="E209" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F209" t="n">
         <v/>
@@ -9323,22 +9266,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="210" s="9" spans="1:13">
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B210" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C210" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D210">
         <f>B210-C210</f>
         <v/>
       </c>
       <c r="E210" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F210" t="s"/>
       <c r="G210" t="s"/>
@@ -9351,64 +9294,64 @@
       <c r="L210" t="s"/>
       <c r="M210" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="211" s="9" spans="1:13">
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B211" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C211" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D211">
         <f>B211-C211</f>
         <v/>
       </c>
       <c r="E211" t="s">
+        <v>271</v>
+      </c>
+      <c r="F211" t="n">
+        <v/>
+      </c>
+      <c r="G211" t="n">
+        <v/>
+      </c>
+      <c r="H211" t="n">
+        <v/>
+      </c>
+      <c r="I211" t="n">
+        <v/>
+      </c>
+      <c r="J211" t="n">
+        <v/>
+      </c>
+      <c r="K211" t="n">
+        <v/>
+      </c>
+      <c r="L211" t="n">
+        <v/>
+      </c>
+      <c r="M211" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="A212" t="s">
         <v>285</v>
       </c>
-      <c r="F211" t="n">
-        <v/>
-      </c>
-      <c r="G211" t="n">
-        <v/>
-      </c>
-      <c r="H211" t="n">
-        <v/>
-      </c>
-      <c r="I211" t="n">
-        <v/>
-      </c>
-      <c r="J211" t="n">
-        <v/>
-      </c>
-      <c r="K211" t="n">
-        <v/>
-      </c>
-      <c r="L211" t="n">
-        <v/>
-      </c>
-      <c r="M211" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="212" s="9" spans="1:13">
-      <c r="A212" t="s">
-        <v>299</v>
-      </c>
       <c r="B212" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C212" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D212">
         <f>B212-C212</f>
         <v/>
       </c>
       <c r="E212" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F212" t="n">
         <v/>
@@ -9435,22 +9378,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="213" s="9" spans="1:13">
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B213" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D213">
         <f>B213-C213</f>
         <v/>
       </c>
       <c r="E213" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F213" t="n">
         <v/>
@@ -9477,22 +9420,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="214" s="9" spans="1:13">
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B214" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C214" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D214">
         <f>B214-C214</f>
         <v/>
       </c>
       <c r="E214" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F214" t="n">
         <v/>
@@ -9519,22 +9462,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="215" s="9" spans="1:13">
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B215" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C215" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D215">
         <f>B215-C215</f>
         <v/>
       </c>
       <c r="E215" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F215" t="n">
         <v/>
@@ -9561,22 +9504,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="216" s="9" spans="1:13">
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B216" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D216">
         <f>B216-C216</f>
         <v/>
       </c>
       <c r="E216" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F216" t="n">
         <v/>
@@ -9603,22 +9546,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="217" s="9" spans="1:13">
+    <row r="217" spans="1:13">
       <c r="A217" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B217" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C217" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D217">
         <f>B217-C217</f>
         <v/>
       </c>
       <c r="E217" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F217" t="s"/>
       <c r="G217" t="s"/>
@@ -9633,22 +9576,22 @@
       <c r="L217" t="s"/>
       <c r="M217" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="218" s="9" spans="1:13">
+    <row r="218" spans="1:13">
       <c r="A218" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C218" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D218">
         <f>B218-C218</f>
         <v/>
       </c>
       <c r="E218" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F218" t="s"/>
       <c r="G218" t="s"/>
@@ -9661,22 +9604,22 @@
       <c r="L218" t="s"/>
       <c r="M218" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="219" s="9" spans="1:13">
+    <row r="219" spans="1:13">
       <c r="A219" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B219" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C219" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D219">
         <f>B219-C219</f>
         <v/>
       </c>
       <c r="E219" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F219" t="s"/>
       <c r="G219" t="s"/>
@@ -9691,22 +9634,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="220" s="9" spans="1:13">
+    <row r="220" spans="1:13">
       <c r="A220" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B220" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C220" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D220">
         <f>B220-C220</f>
         <v/>
       </c>
       <c r="E220" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F220" t="s"/>
       <c r="G220" t="s"/>
@@ -9719,22 +9662,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="221" s="9" spans="1:13">
+    <row r="221" spans="1:13">
       <c r="A221" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D221">
         <f>B221-C221</f>
         <v/>
       </c>
       <c r="E221" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F221" t="s"/>
       <c r="G221" t="s"/>
@@ -9747,22 +9690,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="222" s="9" spans="1:13">
+    <row r="222" spans="1:13">
       <c r="A222" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C222" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D222">
         <f>B222-C222</f>
         <v/>
       </c>
       <c r="E222" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F222" t="s"/>
       <c r="G222" t="s"/>
@@ -9775,22 +9718,22 @@
       </c>
       <c r="M222" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="223" s="9" spans="1:13">
+    <row r="223" spans="1:13">
       <c r="A223" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B223" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C223" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D223">
         <f>B223-C223</f>
         <v/>
       </c>
       <c r="E223" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F223" t="s"/>
       <c r="G223" t="s"/>
@@ -9803,22 +9746,22 @@
       <c r="L223" t="s"/>
       <c r="M223" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="224" s="9" spans="1:13">
+    <row r="224" spans="1:13">
       <c r="A224" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C224" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D224">
         <f>B224-C224</f>
         <v/>
       </c>
       <c r="E224" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F224" t="s"/>
       <c r="G224" t="s"/>
@@ -9831,22 +9774,22 @@
       <c r="L224" t="s"/>
       <c r="M224" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="225" s="9" spans="1:13">
+    <row r="225" spans="1:13">
       <c r="A225" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B225" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C225" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D225">
         <f>B225-C225</f>
         <v/>
       </c>
       <c r="E225" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F225" t="s"/>
       <c r="G225" t="n">
@@ -9865,22 +9808,22 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="226" s="9" spans="1:13">
+    <row r="226" spans="1:13">
       <c r="A226" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B226" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C226" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D226">
         <f>B226-C226</f>
         <v/>
       </c>
       <c r="E226" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F226" t="n">
         <v/>
@@ -9907,22 +9850,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="227" s="9" spans="1:13">
+    <row r="227" spans="1:13">
       <c r="A227" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B227" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C227" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D227">
         <f>B227-C227</f>
         <v/>
       </c>
       <c r="E227" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F227" t="s"/>
       <c r="G227" t="s"/>
@@ -9939,22 +9882,22 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="228" s="9" spans="1:13">
+    <row r="228" spans="1:13">
       <c r="A228" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B228" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C228" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D228">
         <f>B228-C228</f>
         <v/>
       </c>
       <c r="E228" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F228" t="s"/>
       <c r="G228" t="s"/>
@@ -9973,22 +9916,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="229" s="9" spans="1:13">
+    <row r="229" spans="1:13">
       <c r="A229" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B229" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C229" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D229">
         <f>B229-C229</f>
         <v/>
       </c>
       <c r="E229" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F229" t="s"/>
       <c r="G229" t="s"/>
@@ -10005,22 +9948,22 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="230" s="9" spans="1:13">
+    <row r="230" spans="1:13">
       <c r="A230" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B230" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C230" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D230">
         <f>B230-C230</f>
         <v/>
       </c>
       <c r="E230" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F230" t="n">
         <v/>
@@ -10047,22 +9990,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="231" s="9" spans="1:13">
+    <row r="231" spans="1:13">
       <c r="A231" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B231" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C231" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D231">
         <f>B231-C231</f>
         <v/>
       </c>
       <c r="E231" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F231" t="n">
         <v/>
@@ -10089,22 +10032,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="232" s="9" spans="1:13">
+    <row r="232" spans="1:13">
       <c r="A232" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B232" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C232" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D232">
         <f>B232-C232</f>
         <v/>
       </c>
       <c r="E232" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F232" t="n">
         <v/>
@@ -10131,22 +10074,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="233" s="9" spans="1:13">
+    <row r="233" spans="1:13">
       <c r="A233" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B233" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C233" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D233">
         <f>B233-C233</f>
         <v/>
       </c>
       <c r="E233" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F233" t="n">
         <v/>
@@ -10173,22 +10116,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="234" s="9" spans="1:13">
+    <row r="234" spans="1:13">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B234" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C234" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D234">
         <f>B234-C234</f>
         <v/>
       </c>
       <c r="E234" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F234" t="n">
         <v/>
@@ -10215,22 +10158,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="235" s="9" spans="1:13">
+    <row r="235" spans="1:13">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B235" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C235" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D235">
         <f>B235-C235</f>
         <v/>
       </c>
       <c r="E235" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F235" t="n">
         <v/>
@@ -10257,22 +10200,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="236" s="9" spans="1:13">
+    <row r="236" spans="1:13">
       <c r="A236" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C236" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D236">
         <f>B236-C236</f>
         <v/>
       </c>
       <c r="E236" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F236" t="n">
         <v/>
@@ -10299,22 +10242,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="237" s="9" spans="1:13">
+    <row r="237" spans="1:13">
       <c r="A237" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B237" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C237" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D237">
         <f>B237-C237</f>
         <v/>
       </c>
       <c r="E237" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F237" t="n">
         <v/>
@@ -10341,22 +10284,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="238" s="9" spans="1:13">
+    <row r="238" spans="1:13">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C238" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D238">
         <f>B238-C238</f>
         <v/>
       </c>
       <c r="E238" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F238" t="n">
         <v/>
@@ -10383,22 +10326,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="239" s="9" spans="1:13">
+    <row r="239" spans="1:13">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B239" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C239" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D239">
         <f>B239-C239</f>
         <v/>
       </c>
       <c r="E239" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F239" t="n">
         <v/>
@@ -10425,22 +10368,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="240" s="9" spans="1:13">
+    <row r="240" spans="1:13">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B240" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C240" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D240">
         <f>B240-C240</f>
         <v/>
       </c>
       <c r="E240" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F240" t="n">
         <v/>
@@ -10467,22 +10410,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="241" s="9" spans="1:13">
+    <row r="241" spans="1:13">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B241" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C241" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D241">
         <f>B241-C241</f>
         <v/>
       </c>
       <c r="E241" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F241" t="n">
         <v/>
@@ -10509,22 +10452,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="242" s="9" spans="1:13">
+    <row r="242" spans="1:13">
       <c r="A242" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B242" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C242" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D242">
         <f>B242-C242</f>
         <v/>
       </c>
       <c r="E242" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F242" t="n">
         <v/>
@@ -10551,22 +10494,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="243" s="9" spans="1:13">
+    <row r="243" spans="1:13">
       <c r="A243" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B243" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C243" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D243">
         <f>B243-C243</f>
         <v/>
       </c>
       <c r="E243" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F243" t="n">
         <v/>
@@ -10593,22 +10536,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="244" s="9" spans="1:13">
+    <row r="244" spans="1:13">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B244" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D244">
         <f>B244-C244</f>
         <v/>
       </c>
       <c r="E244" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F244" t="n">
         <v/>
@@ -10635,9 +10578,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="245" s="9" spans="1:13">
+    <row r="245" spans="1:13">
       <c r="A245" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B245" t="n">
         <v/>
@@ -10650,7 +10593,7 @@
         <v/>
       </c>
       <c r="E245" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F245" t="n">
         <v/>
@@ -10677,9 +10620,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="246" s="9" spans="1:13">
+    <row r="246" spans="1:13">
       <c r="A246" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B246" t="n">
         <v/>
@@ -10692,7 +10635,7 @@
         <v/>
       </c>
       <c r="E246" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F246" t="n">
         <v/>
@@ -10719,9 +10662,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="247" s="9" spans="1:13">
+    <row r="247" spans="1:13">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B247" t="n">
         <v/>
@@ -10734,7 +10677,7 @@
         <v/>
       </c>
       <c r="E247" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F247" t="s"/>
       <c r="G247" t="s"/>
@@ -10747,22 +10690,22 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="248" s="9" spans="1:13">
+    <row r="248" spans="1:13">
       <c r="A248" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B248" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C248" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D248">
         <f>B248-C248</f>
         <v/>
       </c>
       <c r="E248" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F248" t="s"/>
       <c r="G248" t="s"/>
@@ -10775,22 +10718,22 @@
       <c r="L248" t="s"/>
       <c r="M248" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="249" s="9" spans="1:13">
+    <row r="249" spans="1:13">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B249" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C249" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D249">
         <f>B249-C249</f>
         <v/>
       </c>
       <c r="E249" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F249" t="s"/>
       <c r="G249" t="s"/>
@@ -10805,22 +10748,22 @@
       </c>
       <c r="M249" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="250" s="9" spans="1:13">
+    <row r="250" spans="1:13">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B250" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C250" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D250">
         <f>B250-C250</f>
         <v/>
       </c>
       <c r="E250" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F250" t="s"/>
       <c r="G250" t="s"/>
@@ -10833,22 +10776,22 @@
       <c r="L250" t="s"/>
       <c r="M250" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="251" s="9" spans="1:13">
+    <row r="251" spans="1:13">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B251" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C251" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D251">
         <f>B251-C251</f>
         <v/>
       </c>
       <c r="E251" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F251" t="n">
         <v/>
@@ -10875,22 +10818,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="252" s="9" spans="1:13">
+    <row r="252" spans="1:13">
       <c r="A252" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B252" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D252">
         <f>B252-C252</f>
         <v/>
       </c>
       <c r="E252" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F252" t="s"/>
       <c r="G252" t="s"/>
@@ -10905,22 +10848,22 @@
       <c r="L252" t="s"/>
       <c r="M252" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="253" s="9" spans="1:13">
+    <row r="253" spans="1:13">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B253" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C253" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D253">
         <f>B253-C253</f>
         <v/>
       </c>
       <c r="E253" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F253" t="s"/>
       <c r="G253" t="s"/>
@@ -10933,22 +10876,22 @@
       <c r="L253" t="s"/>
       <c r="M253" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="254" s="9" spans="1:13">
+    <row r="254" spans="1:13">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C254" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D254">
         <f>B254-C254</f>
         <v/>
       </c>
       <c r="E254" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F254" t="s"/>
       <c r="G254" t="s"/>
@@ -10961,22 +10904,22 @@
       <c r="L254" t="s"/>
       <c r="M254" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="255" s="9" spans="1:13">
+    <row r="255" spans="1:13">
       <c r="A255" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B255" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C255" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D255">
         <f>B255-C255</f>
         <v/>
       </c>
       <c r="E255" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F255" t="s"/>
       <c r="G255" t="s"/>
@@ -10989,22 +10932,22 @@
       </c>
       <c r="M255" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="256" s="9" spans="1:13">
+    <row r="256" spans="1:13">
       <c r="A256" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B256" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C256" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D256">
         <f>B256-C256</f>
         <v/>
       </c>
       <c r="E256" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F256" t="s"/>
       <c r="G256" t="s"/>
@@ -11017,9 +10960,9 @@
       <c r="L256" t="s"/>
       <c r="M256" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="257" s="9" spans="1:13">
+    <row r="257" spans="1:13">
       <c r="A257" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B257" t="n">
         <v/>
@@ -11032,7 +10975,7 @@
         <v/>
       </c>
       <c r="E257" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F257" t="n">
         <v/>
@@ -11059,22 +11002,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="258" s="9" spans="1:13">
+    <row r="258" spans="1:13">
       <c r="A258" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B258" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C258" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D258">
         <f>B258-C258</f>
         <v/>
       </c>
       <c r="E258" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F258" t="n">
         <v/>
@@ -11101,22 +11044,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="259" s="9" spans="1:13">
+    <row r="259" spans="1:13">
       <c r="A259" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B259" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C259" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D259">
         <f>B259-C259</f>
         <v/>
       </c>
       <c r="E259" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F259" t="n">
         <v/>
@@ -11143,22 +11086,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="260" s="9" spans="1:13">
+    <row r="260" spans="1:13">
       <c r="A260" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B260" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C260" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D260">
         <f>B260-C260</f>
         <v/>
       </c>
       <c r="E260" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F260" t="n">
         <v/>
@@ -11185,22 +11128,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="261" s="9" spans="1:13">
+    <row r="261" spans="1:13">
       <c r="A261" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B261" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C261" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D261">
         <f>B261-C261</f>
         <v/>
       </c>
       <c r="E261" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F261" t="n">
         <v/>
@@ -11227,22 +11170,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="262" s="9" spans="1:13">
+    <row r="262" spans="1:13">
       <c r="A262" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B262" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C262" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D262">
         <f>B262-C262</f>
         <v/>
       </c>
       <c r="E262" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F262" t="n">
         <v/>
@@ -11269,22 +11212,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="263" s="9" spans="1:13">
+    <row r="263" spans="1:13">
       <c r="A263" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B263" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C263" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D263">
         <f>B263-C263</f>
         <v/>
       </c>
       <c r="E263" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F263" t="n">
         <v/>
@@ -11311,22 +11254,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="264" s="9" spans="1:13">
+    <row r="264" spans="1:13">
       <c r="A264" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B264" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C264" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D264">
         <f>B264-C264</f>
         <v/>
       </c>
       <c r="E264" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F264" t="n">
         <v/>
@@ -11353,22 +11296,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="265" s="9" spans="1:13">
+    <row r="265" spans="1:13">
       <c r="A265" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B265" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C265" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D265">
         <f>B265-C265</f>
         <v/>
       </c>
       <c r="E265" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F265" t="n">
         <v/>
@@ -11395,22 +11338,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="266" s="9" spans="1:13">
+    <row r="266" spans="1:13">
       <c r="A266" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B266" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C266" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D266">
         <f>B266-C266</f>
         <v/>
       </c>
       <c r="E266" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F266" t="s"/>
       <c r="G266" t="s"/>
@@ -11423,22 +11366,22 @@
         <v>300</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="267" s="9" spans="1:13">
+    <row r="267" spans="1:13">
       <c r="A267" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B267" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C267" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D267">
         <f>B267-C267</f>
         <v/>
       </c>
       <c r="E267" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F267" t="s"/>
       <c r="G267" t="n">
@@ -11451,22 +11394,22 @@
       <c r="L267" t="s"/>
       <c r="M267" t="s"/>
     </row>
-    <row customHeight="1" ht="13.8" r="268" s="9" spans="1:13">
+    <row r="268" spans="1:13">
       <c r="A268" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B268" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C268" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D268">
         <f>B268-C268</f>
         <v/>
       </c>
       <c r="E268" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F268" t="n">
         <v/>
@@ -11493,22 +11436,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="269" s="9" spans="1:13">
+    <row r="269" spans="1:13">
       <c r="A269" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B269" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C269" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D269">
         <f>B269-C269</f>
         <v/>
       </c>
       <c r="E269" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F269" t="n">
         <v/>
@@ -11535,22 +11478,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="270" s="9" spans="1:13">
+    <row r="270" spans="1:13">
       <c r="A270" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B270" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C270" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D270">
         <f>B270-C270</f>
         <v/>
       </c>
       <c r="E270" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F270" t="n">
         <v/>
@@ -11577,22 +11520,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="271" s="9" spans="1:13">
+    <row r="271" spans="1:13">
       <c r="A271" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C271" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D271">
         <f>B271-C271</f>
         <v/>
       </c>
       <c r="E271" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F271" t="n">
         <v/>
@@ -11619,22 +11562,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="272" s="9" spans="1:13">
+    <row r="272" spans="1:13">
       <c r="A272" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B272" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C272" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D272">
         <f>B272-C272</f>
         <v/>
       </c>
       <c r="E272" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F272" t="n">
         <v/>
@@ -11661,22 +11604,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="273" s="9" spans="1:13">
+    <row r="273" spans="1:13">
       <c r="A273" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B273" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C273" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D273">
         <f>B273-C273</f>
         <v/>
       </c>
       <c r="E273" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F273" t="n">
         <v/>
@@ -11703,22 +11646,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="274" s="9" spans="1:13">
+    <row r="274" spans="1:13">
       <c r="A274" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B274" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C274" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D274">
         <f>B274-C274</f>
         <v/>
       </c>
       <c r="E274" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F274" t="n">
         <v/>
@@ -11745,22 +11688,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="275" s="9" spans="1:13">
+    <row r="275" spans="1:13">
       <c r="A275" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B275" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C275" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D275">
         <f>B275-C275</f>
         <v/>
       </c>
       <c r="E275" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F275" t="n">
         <v/>
@@ -11787,9 +11730,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="276" s="9" spans="1:13">
+    <row r="276" spans="1:13">
       <c r="A276" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B276" t="n">
         <v/>
@@ -11802,7 +11745,7 @@
         <v/>
       </c>
       <c r="E276" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F276" t="n">
         <v/>
@@ -11829,22 +11772,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="277" s="9" spans="1:13">
+    <row r="277" spans="1:13">
       <c r="A277" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B277" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C277" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D277">
         <f>B277-C277</f>
         <v/>
       </c>
       <c r="E277" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F277" t="n">
         <v/>
@@ -11871,22 +11814,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="278" s="9" spans="1:13">
+    <row r="278" spans="1:13">
       <c r="A278" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B278" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C278" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D278">
         <f>B278-C278</f>
         <v/>
       </c>
       <c r="E278" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F278" t="n">
         <v/>
@@ -11913,9 +11856,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="279" s="9" spans="1:13">
+    <row r="279" spans="1:13">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B279" t="n">
         <v/>
@@ -11928,7 +11871,7 @@
         <v/>
       </c>
       <c r="E279" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F279" t="n">
         <v/>
@@ -11955,9 +11898,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="280" s="9" spans="1:13">
+    <row r="280" spans="1:13">
       <c r="A280" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B280" t="n">
         <v/>
@@ -11970,7 +11913,7 @@
         <v/>
       </c>
       <c r="E280" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F280" t="n">
         <v/>
@@ -11997,9 +11940,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="281" s="9" spans="1:13">
+    <row r="281" spans="1:13">
       <c r="A281" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B281" t="n">
         <v/>
@@ -12012,7 +11955,7 @@
         <v/>
       </c>
       <c r="E281" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F281" t="n">
         <v/>
@@ -12039,9 +11982,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="282" s="9" spans="1:13">
+    <row r="282" spans="1:13">
       <c r="A282" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B282" t="n">
         <v/>
@@ -12054,36 +11997,36 @@
         <v/>
       </c>
       <c r="E282" t="s">
+        <v>352</v>
+      </c>
+      <c r="F282" t="n">
+        <v/>
+      </c>
+      <c r="G282" t="n">
+        <v/>
+      </c>
+      <c r="H282" t="n">
+        <v/>
+      </c>
+      <c r="I282" t="n">
+        <v/>
+      </c>
+      <c r="J282" t="n">
+        <v/>
+      </c>
+      <c r="K282" t="n">
+        <v/>
+      </c>
+      <c r="L282" t="n">
+        <v/>
+      </c>
+      <c r="M282" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" t="s">
         <v>366</v>
-      </c>
-      <c r="F282" t="n">
-        <v/>
-      </c>
-      <c r="G282" t="n">
-        <v/>
-      </c>
-      <c r="H282" t="n">
-        <v/>
-      </c>
-      <c r="I282" t="n">
-        <v/>
-      </c>
-      <c r="J282" t="n">
-        <v/>
-      </c>
-      <c r="K282" t="n">
-        <v/>
-      </c>
-      <c r="L282" t="n">
-        <v/>
-      </c>
-      <c r="M282" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.8" r="283" s="9" spans="1:13">
-      <c r="A283" t="s">
-        <v>380</v>
       </c>
       <c r="B283" t="n">
         <v/>
@@ -12096,7 +12039,7 @@
         <v/>
       </c>
       <c r="E283" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F283" t="n">
         <v/>
@@ -12123,22 +12066,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="284" s="9" spans="1:13">
+    <row r="284" spans="1:13">
       <c r="A284" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B284" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C284" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D284">
         <f>B284-C284</f>
         <v/>
       </c>
       <c r="E284" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F284" t="n">
         <v/>
@@ -12165,9 +12108,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="285" s="9" spans="1:13">
+    <row r="285" spans="1:13">
       <c r="A285" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B285" t="n">
         <v/>
@@ -12180,7 +12123,7 @@
         <v/>
       </c>
       <c r="E285" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F285" t="n">
         <v/>
@@ -12207,9 +12150,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="286" s="9" spans="1:13">
+    <row r="286" spans="1:13">
       <c r="A286" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B286" t="n">
         <v/>
@@ -12222,7 +12165,7 @@
         <v/>
       </c>
       <c r="E286" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F286" t="n">
         <v/>
@@ -12249,9 +12192,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="287" s="9" spans="1:13">
+    <row r="287" spans="1:13">
       <c r="A287" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B287" t="n">
         <v/>
@@ -12264,7 +12207,7 @@
         <v/>
       </c>
       <c r="E287" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F287" t="n">
         <v/>
@@ -12291,9 +12234,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="288" s="9" spans="1:13">
+    <row r="288" spans="1:13">
       <c r="A288" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B288" t="n">
         <v/>
@@ -12306,7 +12249,7 @@
         <v/>
       </c>
       <c r="E288" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F288" t="n">
         <v/>
@@ -12333,9 +12276,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="289" s="9" spans="1:13">
+    <row r="289" spans="1:13">
       <c r="A289" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B289" t="n">
         <v/>
@@ -12348,7 +12291,7 @@
         <v/>
       </c>
       <c r="E289" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F289" t="n">
         <v/>
@@ -12375,9 +12318,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="290" s="9" spans="1:13">
+    <row r="290" spans="1:13">
       <c r="A290" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B290" t="n">
         <v/>
@@ -12390,7 +12333,7 @@
         <v/>
       </c>
       <c r="E290" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F290" t="n">
         <v/>
@@ -12417,9 +12360,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="291" s="9" spans="1:13">
+    <row r="291" spans="1:13">
       <c r="A291" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B291" t="n">
         <v/>
@@ -12432,7 +12375,7 @@
         <v/>
       </c>
       <c r="E291" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F291" t="n">
         <v/>
@@ -12459,9 +12402,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="292" s="9" spans="1:13">
+    <row r="292" spans="1:13">
       <c r="A292" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B292" t="n">
         <v/>
@@ -12474,7 +12417,7 @@
         <v/>
       </c>
       <c r="E292" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F292" t="n">
         <v/>
@@ -12501,22 +12444,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="293" s="9" spans="1:13">
+    <row r="293" spans="1:13">
       <c r="A293" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B293" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C293" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D293">
         <f>B293-C293</f>
         <v/>
       </c>
       <c r="E293" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F293" t="n">
         <v/>
@@ -12543,9 +12486,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="294" s="9" spans="1:13">
+    <row r="294" spans="1:13">
       <c r="A294" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B294" t="n">
         <v/>
@@ -12558,7 +12501,7 @@
         <v/>
       </c>
       <c r="E294" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F294" t="n">
         <v/>
@@ -12585,9 +12528,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="295" s="9" spans="1:13">
+    <row r="295" spans="1:13">
       <c r="A295" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B295" t="n">
         <v/>
@@ -12600,7 +12543,7 @@
         <v/>
       </c>
       <c r="E295" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F295" t="n">
         <v/>
@@ -12627,9 +12570,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="296" s="9" spans="1:13">
+    <row r="296" spans="1:13">
       <c r="A296" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B296" t="n">
         <v/>
@@ -12642,7 +12585,7 @@
         <v/>
       </c>
       <c r="E296" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F296" t="n">
         <v/>
@@ -12669,9 +12612,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="297" s="9" spans="1:13">
+    <row r="297" spans="1:13">
       <c r="A297" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B297" t="n">
         <v/>
@@ -12684,7 +12627,7 @@
         <v/>
       </c>
       <c r="E297" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F297" t="n">
         <v/>
@@ -12711,9 +12654,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="298" s="9" spans="1:13">
+    <row r="298" spans="1:13">
       <c r="A298" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B298" t="n">
         <v/>
@@ -12726,7 +12669,7 @@
         <v/>
       </c>
       <c r="E298" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F298" t="n">
         <v/>
@@ -12753,9 +12696,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="299" s="9" spans="1:13">
+    <row r="299" spans="1:13">
       <c r="A299" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B299" t="n">
         <v/>
@@ -12768,7 +12711,7 @@
         <v/>
       </c>
       <c r="E299" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F299" t="n">
         <v/>
@@ -12795,9 +12738,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="300" s="9" spans="1:13">
+    <row r="300" spans="1:13">
       <c r="A300" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B300" t="n">
         <v/>
@@ -12810,7 +12753,7 @@
         <v/>
       </c>
       <c r="E300" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F300" t="n">
         <v/>
@@ -12837,9 +12780,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="301" s="9" spans="1:13">
+    <row r="301" spans="1:13">
       <c r="A301" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B301" t="n">
         <v/>
@@ -12852,7 +12795,7 @@
         <v/>
       </c>
       <c r="E301" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F301" t="n">
         <v/>
@@ -12879,9 +12822,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="302" s="9" spans="1:13">
+    <row r="302" spans="1:13">
       <c r="A302" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B302" t="n">
         <v/>
@@ -12894,7 +12837,7 @@
         <v/>
       </c>
       <c r="E302" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F302" t="n">
         <v/>
@@ -12921,9 +12864,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="303" s="9" spans="1:13">
+    <row r="303" spans="1:13">
       <c r="A303" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B303" t="n">
         <v/>
@@ -12936,7 +12879,7 @@
         <v/>
       </c>
       <c r="E303" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F303" t="n">
         <v/>
@@ -12963,22 +12906,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="304" s="9" spans="1:13">
+    <row r="304" spans="1:13">
       <c r="A304" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B304" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C304" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D304">
         <f>B304-C304</f>
         <v/>
       </c>
       <c r="E304" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F304" t="n">
         <v/>
@@ -13005,9 +12948,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="305" s="9" spans="1:13">
+    <row r="305" spans="1:13">
       <c r="A305" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B305" t="n">
         <v/>
@@ -13020,7 +12963,7 @@
         <v/>
       </c>
       <c r="E305" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F305" t="n">
         <v/>
@@ -13047,9 +12990,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="306" s="9" spans="1:13">
+    <row r="306" spans="1:13">
       <c r="A306" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B306" t="n">
         <v/>
@@ -13062,7 +13005,7 @@
         <v/>
       </c>
       <c r="E306" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F306" t="n">
         <v/>
@@ -13089,9 +13032,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="307" s="9" spans="1:13">
+    <row r="307" spans="1:13">
       <c r="A307" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B307" t="n">
         <v/>
@@ -13104,7 +13047,7 @@
         <v/>
       </c>
       <c r="E307" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F307" t="n">
         <v/>
@@ -13131,22 +13074,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="308" s="9" spans="1:13">
+    <row r="308" spans="1:13">
       <c r="A308" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B308" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C308" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D308">
         <f>B308-C308</f>
         <v/>
       </c>
       <c r="E308" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F308" t="n">
         <v/>
@@ -13173,22 +13116,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="309" s="9" spans="1:13">
+    <row r="309" spans="1:13">
       <c r="A309" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B309" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C309" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D309">
         <f>B309-C309</f>
         <v/>
       </c>
       <c r="E309" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F309" t="n">
         <v/>
@@ -13215,22 +13158,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="310" s="9" spans="1:13">
+    <row r="310" spans="1:13">
       <c r="A310" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B310" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C310" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D310">
         <f>B310-C310</f>
         <v/>
       </c>
       <c r="E310" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F310" t="n">
         <v/>
@@ -13257,9 +13200,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="311" s="9" spans="1:13">
+    <row r="311" spans="1:13">
       <c r="A311" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B311" t="n">
         <v/>
@@ -13272,7 +13215,7 @@
         <v/>
       </c>
       <c r="E311" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F311" t="n">
         <v/>
@@ -13299,9 +13242,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="312" s="9" spans="1:13">
+    <row r="312" spans="1:13">
       <c r="A312" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B312" t="n">
         <v/>
@@ -13314,7 +13257,7 @@
         <v/>
       </c>
       <c r="E312" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F312" t="n">
         <v/>
@@ -13341,22 +13284,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="313" s="9" spans="1:13">
+    <row r="313" spans="1:13">
       <c r="A313" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B313" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C313" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D313">
         <f>B313-C313</f>
         <v/>
       </c>
       <c r="E313" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F313" t="n">
         <v/>
@@ -13383,22 +13326,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="314" s="9" spans="1:13">
+    <row r="314" spans="1:13">
       <c r="A314" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B314" t="s">
+        <v>88</v>
+      </c>
+      <c r="C314" t="s">
         <v>102</v>
-      </c>
-      <c r="C314" t="s">
-        <v>116</v>
       </c>
       <c r="D314">
         <f>B314-C314</f>
         <v/>
       </c>
       <c r="E314" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F314" t="n">
         <v/>
@@ -13425,9 +13368,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="315" s="9" spans="1:13">
+    <row r="315" spans="1:13">
       <c r="A315" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B315" t="n">
         <v/>
@@ -13440,7 +13383,7 @@
         <v/>
       </c>
       <c r="E315" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F315" t="n">
         <v/>
@@ -13467,22 +13410,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="316" s="9" spans="1:13">
+    <row r="316" spans="1:13">
       <c r="A316" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B316" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C316" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D316">
         <f>B316-C316</f>
         <v/>
       </c>
       <c r="E316" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F316" t="n">
         <v/>
@@ -13509,22 +13452,22 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="317" s="9" spans="1:13">
+    <row r="317" spans="1:13">
       <c r="A317" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B317" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C317" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D317">
         <f>B317-C317</f>
         <v/>
       </c>
       <c r="E317" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F317" t="n">
         <v/>
@@ -13551,9 +13494,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="318" s="9" spans="1:13">
+    <row r="318" spans="1:13">
       <c r="A318" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B318" t="n">
         <v/>
@@ -13566,7 +13509,7 @@
         <v/>
       </c>
       <c r="E318" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F318" t="n">
         <v/>
@@ -13593,9 +13536,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="319" s="9" spans="1:13">
+    <row r="319" spans="1:13">
       <c r="A319" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B319" t="n">
         <v/>
@@ -13608,7 +13551,7 @@
         <v/>
       </c>
       <c r="E319" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F319" t="n">
         <v/>
@@ -13635,9 +13578,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="320" s="9" spans="1:13">
+    <row r="320" spans="1:13">
       <c r="A320" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B320" t="n">
         <v/>
@@ -13650,7 +13593,7 @@
         <v/>
       </c>
       <c r="E320" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F320" t="n">
         <v/>
@@ -13677,9 +13620,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="321" s="9" spans="1:13">
+    <row r="321" spans="1:13">
       <c r="A321" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B321" t="n">
         <v/>
@@ -13692,7 +13635,7 @@
         <v/>
       </c>
       <c r="E321" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F321" t="n">
         <v/>
@@ -13719,9 +13662,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="322" s="9" spans="1:13">
+    <row r="322" spans="1:13">
       <c r="A322" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B322" t="n">
         <v/>
@@ -13734,7 +13677,7 @@
         <v/>
       </c>
       <c r="E322" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F322" t="n">
         <v/>
@@ -13761,9 +13704,9 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="323" s="9" spans="1:13">
+    <row r="323" spans="1:13">
       <c r="A323" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B323" t="n">
         <v/>
@@ -13776,7 +13719,7 @@
         <v/>
       </c>
       <c r="E323" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F323" t="n">
         <v/>
@@ -13803,168 +13746,8 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="324" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="325" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="326" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="327" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="328" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="329" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="330" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="331" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="332" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="333" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="334" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="335" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="336" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="337" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="338" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="339" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="340" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="341" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="342" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="343" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="344" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="345" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="346" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="347" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="348" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="349" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="350" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="351" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="352" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="353" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="354" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="355" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="356" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="357" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="358" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="359" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="360" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="361" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="362" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="363" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="364" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="365" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="366" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="367" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="368" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="369" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="370" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="371" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="372" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="373" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="374" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="375" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="376" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="377" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="378" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="379" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="380" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="381" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="382" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="383" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="384" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="385" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="386" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="387" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="388" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="389" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="390" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="391" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="392" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="393" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="394" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="395" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="396" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="397" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="398" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="399" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="400" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="401" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="402" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="403" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="404" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="405" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="406" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="407" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="408" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="409" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="410" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="411" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="412" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="413" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="414" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="415" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="416" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="417" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="418" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="419" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="420" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="421" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="422" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="423" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="424" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="425" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="426" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="427" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="428" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="429" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="430" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="431" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="432" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="433" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="434" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="435" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="436" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="437" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="438" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="439" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="440" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="441" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="442" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="443" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="444" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="445" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="446" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="447" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="448" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="449" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="450" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="451" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="452" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="453" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="454" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="455" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="456" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="457" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="458" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="459" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="460" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="461" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="462" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="463" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="464" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="465" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="466" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="467" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="468" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="469" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="470" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="471" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="472" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="473" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="474" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="475" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="476" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="477" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="478" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="479" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="480" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="481" s="9" spans="1:13"/>
-    <row customHeight="1" ht="13.8" r="482" s="9" spans="1:13"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>